--- a/va_facility_data_2025-02-20/Richmond VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Richmond%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Richmond VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Richmond%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R28c74082318e4a088d6d4ae844389365"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R6ed11ac8174240d3b06dcf94e5674c61"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="Redcc8dbf15664454a79ce333bd0bd859"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Reb3fe087b7b74d298fde80133511c516"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Ra5ff61efbbd64052b34da699556d522f"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R4fee0982d6d2499fb4d63d7abafbe9c9"/>
   </x:sheets>
 </x:workbook>
 </file>
